--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/3i Infotech Ltd/Pruned_Excel/Pruned_Year_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/3i Infotech Ltd/Pruned_Excel/Pruned_Year_combined.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Yearly Results of 3i Infotech(in Rs. Cr.)</t>
   </si>
@@ -140,6 +140,66 @@
   </si>
   <si>
     <t>Mar '24</t>
+  </si>
+  <si>
+    <t>192.60</t>
+  </si>
+  <si>
+    <t>207.03</t>
+  </si>
+  <si>
+    <t>276.03</t>
+  </si>
+  <si>
+    <t>332.37</t>
+  </si>
+  <si>
+    <t>447.27</t>
+  </si>
+  <si>
+    <t>527.24</t>
+  </si>
+  <si>
+    <t>519.99</t>
+  </si>
+  <si>
+    <t>550.25</t>
+  </si>
+  <si>
+    <t>514.16</t>
+  </si>
+  <si>
+    <t>365.47</t>
+  </si>
+  <si>
+    <t>326.50</t>
+  </si>
+  <si>
+    <t>330.25</t>
+  </si>
+  <si>
+    <t>279.07</t>
+  </si>
+  <si>
+    <t>237.51</t>
+  </si>
+  <si>
+    <t>283.93</t>
+  </si>
+  <si>
+    <t>338.27</t>
+  </si>
+  <si>
+    <t>207.77</t>
+  </si>
+  <si>
+    <t>212.04</t>
+  </si>
+  <si>
+    <t>276.24</t>
+  </si>
+  <si>
+    <t>357.33</t>
   </si>
 </sst>
 </file>
@@ -575,8 +635,8 @@
       <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="B2">
-        <v>192.6</v>
+      <c r="B2" t="s">
+        <v>42</v>
       </c>
       <c r="C2">
         <v>192.6</v>
@@ -606,7 +666,7 @@
         <v>7.56</v>
       </c>
       <c r="L2">
-        <v>-58.3175</v>
+        <v>-58.32</v>
       </c>
       <c r="M2">
         <v>7.56</v>
@@ -627,24 +687,24 @@
         <v>29.06</v>
       </c>
       <c r="S2">
-        <v>-5.320769230769231</v>
+        <v>-5.32</v>
       </c>
       <c r="T2">
-        <v>-5.326153846153845</v>
+        <v>-5.33</v>
       </c>
       <c r="U2">
-        <v>-5.369230769230769</v>
+        <v>-5.37</v>
       </c>
       <c r="V2">
-        <v>-5.374615384615385</v>
+        <v>-5.37</v>
       </c>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="B3">
-        <v>207.03</v>
+      <c r="B3" t="s">
+        <v>43</v>
       </c>
       <c r="C3">
         <v>207.03</v>
@@ -674,7 +734,7 @@
         <v>19.87</v>
       </c>
       <c r="L3">
-        <v>-58.3175</v>
+        <v>-58.32</v>
       </c>
       <c r="M3">
         <v>19.87</v>
@@ -695,30 +755,30 @@
         <v>29.91</v>
       </c>
       <c r="S3">
-        <v>-5.320769230769231</v>
+        <v>-5.32</v>
       </c>
       <c r="T3">
-        <v>-5.326153846153845</v>
+        <v>-5.33</v>
       </c>
       <c r="U3">
-        <v>-5.369230769230769</v>
+        <v>-5.37</v>
       </c>
       <c r="V3">
-        <v>-5.374615384615385</v>
+        <v>-5.37</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" t="s">
         <v>24</v>
       </c>
-      <c r="B4">
-        <v>276.03</v>
+      <c r="B4" t="s">
+        <v>44</v>
       </c>
       <c r="C4">
         <v>276.03</v>
       </c>
       <c r="D4">
-        <v>119.9366666666667</v>
+        <v>119.94</v>
       </c>
       <c r="E4">
         <v>23.68</v>
@@ -742,7 +802,7 @@
         <v>41</v>
       </c>
       <c r="L4">
-        <v>-58.3175</v>
+        <v>-58.32</v>
       </c>
       <c r="M4">
         <v>41</v>
@@ -763,24 +823,24 @@
         <v>219.17</v>
       </c>
       <c r="S4">
-        <v>-5.320769230769231</v>
+        <v>-5.32</v>
       </c>
       <c r="T4">
-        <v>-5.326153846153845</v>
+        <v>-5.33</v>
       </c>
       <c r="U4">
-        <v>-5.369230769230769</v>
+        <v>-5.37</v>
       </c>
       <c r="V4">
-        <v>-5.374615384615385</v>
+        <v>-5.37</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="A5" t="s">
         <v>25</v>
       </c>
-      <c r="B5">
-        <v>332.37</v>
+      <c r="B5" t="s">
+        <v>45</v>
       </c>
       <c r="C5">
         <v>332.37</v>
@@ -810,7 +870,7 @@
         <v>39.04</v>
       </c>
       <c r="L5">
-        <v>-58.3175</v>
+        <v>-58.32</v>
       </c>
       <c r="M5">
         <v>39.04</v>
@@ -831,30 +891,30 @@
         <v>305.35</v>
       </c>
       <c r="S5">
-        <v>-5.320769230769231</v>
+        <v>-5.32</v>
       </c>
       <c r="T5">
-        <v>-5.326153846153845</v>
+        <v>-5.33</v>
       </c>
       <c r="U5">
-        <v>-5.369230769230769</v>
+        <v>-5.37</v>
       </c>
       <c r="V5">
-        <v>-5.374615384615385</v>
+        <v>-5.37</v>
       </c>
     </row>
     <row r="6" spans="1:22">
       <c r="A6" t="s">
         <v>26</v>
       </c>
-      <c r="B6">
-        <v>447.27</v>
+      <c r="B6" t="s">
+        <v>46</v>
       </c>
       <c r="C6">
         <v>447.27</v>
       </c>
       <c r="D6">
-        <v>119.9366666666667</v>
+        <v>119.94</v>
       </c>
       <c r="E6">
         <v>25.06</v>
@@ -878,7 +938,7 @@
         <v>104.14</v>
       </c>
       <c r="L6">
-        <v>-58.3175</v>
+        <v>-58.32</v>
       </c>
       <c r="M6">
         <v>104.14</v>
@@ -899,24 +959,24 @@
         <v>414.45</v>
       </c>
       <c r="S6">
-        <v>-5.320769230769231</v>
+        <v>-5.32</v>
       </c>
       <c r="T6">
-        <v>-5.326153846153845</v>
+        <v>-5.33</v>
       </c>
       <c r="U6">
-        <v>-5.369230769230769</v>
+        <v>-5.37</v>
       </c>
       <c r="V6">
-        <v>-5.374615384615385</v>
+        <v>-5.37</v>
       </c>
     </row>
     <row r="7" spans="1:22">
       <c r="A7" t="s">
         <v>27</v>
       </c>
-      <c r="B7">
-        <v>527.24</v>
+      <c r="B7" t="s">
+        <v>47</v>
       </c>
       <c r="C7">
         <v>527.24</v>
@@ -946,7 +1006,7 @@
         <v>161.4</v>
       </c>
       <c r="L7">
-        <v>-58.3175</v>
+        <v>-58.32</v>
       </c>
       <c r="M7">
         <v>161.4</v>
@@ -967,24 +1027,24 @@
         <v>515.9</v>
       </c>
       <c r="S7">
-        <v>-5.320769230769231</v>
+        <v>-5.32</v>
       </c>
       <c r="T7">
-        <v>-5.326153846153845</v>
+        <v>-5.33</v>
       </c>
       <c r="U7">
-        <v>-5.369230769230769</v>
+        <v>-5.37</v>
       </c>
       <c r="V7">
-        <v>-5.374615384615385</v>
+        <v>-5.37</v>
       </c>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" t="s">
         <v>28</v>
       </c>
-      <c r="B8">
-        <v>519.99</v>
+      <c r="B8" t="s">
+        <v>48</v>
       </c>
       <c r="C8">
         <v>519.99</v>
@@ -1014,7 +1074,7 @@
         <v>136.48</v>
       </c>
       <c r="L8">
-        <v>-58.3175</v>
+        <v>-58.32</v>
       </c>
       <c r="M8">
         <v>136.48</v>
@@ -1035,24 +1095,24 @@
         <v>626.34</v>
       </c>
       <c r="S8">
-        <v>-5.320769230769231</v>
+        <v>-5.32</v>
       </c>
       <c r="T8">
-        <v>-5.326153846153845</v>
+        <v>-5.33</v>
       </c>
       <c r="U8">
-        <v>-5.369230769230769</v>
+        <v>-5.37</v>
       </c>
       <c r="V8">
-        <v>-5.374615384615385</v>
+        <v>-5.37</v>
       </c>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" t="s">
         <v>29</v>
       </c>
-      <c r="B9">
-        <v>550.25</v>
+      <c r="B9" t="s">
+        <v>49</v>
       </c>
       <c r="C9">
         <v>550.25</v>
@@ -1082,7 +1142,7 @@
         <v>108.15</v>
       </c>
       <c r="L9">
-        <v>-58.3175</v>
+        <v>-58.32</v>
       </c>
       <c r="M9">
         <v>108.15</v>
@@ -1119,8 +1179,8 @@
       <c r="A10" t="s">
         <v>30</v>
       </c>
-      <c r="B10">
-        <v>514.16</v>
+      <c r="B10" t="s">
+        <v>50</v>
       </c>
       <c r="C10">
         <v>514.16</v>
@@ -1168,7 +1228,7 @@
         <v>191.99</v>
       </c>
       <c r="R10">
-        <v>-80.82210526315788</v>
+        <v>-80.81999999999999</v>
       </c>
       <c r="S10">
         <v>-16.99</v>
@@ -1187,8 +1247,8 @@
       <c r="A11" t="s">
         <v>31</v>
       </c>
-      <c r="B11">
-        <v>365.47</v>
+      <c r="B11" t="s">
+        <v>51</v>
       </c>
       <c r="C11">
         <v>365.47</v>
@@ -1255,8 +1315,8 @@
       <c r="A12" t="s">
         <v>32</v>
       </c>
-      <c r="B12">
-        <v>326.5</v>
+      <c r="B12" t="s">
+        <v>52</v>
       </c>
       <c r="C12">
         <v>326.5</v>
@@ -1323,8 +1383,8 @@
       <c r="A13" t="s">
         <v>33</v>
       </c>
-      <c r="B13">
-        <v>330.25</v>
+      <c r="B13" t="s">
+        <v>53</v>
       </c>
       <c r="C13">
         <v>330.25</v>
@@ -1391,8 +1451,8 @@
       <c r="A14" t="s">
         <v>34</v>
       </c>
-      <c r="B14">
-        <v>279.07</v>
+      <c r="B14" t="s">
+        <v>54</v>
       </c>
       <c r="C14">
         <v>279.07</v>
@@ -1459,8 +1519,8 @@
       <c r="A15" t="s">
         <v>35</v>
       </c>
-      <c r="B15">
-        <v>237.51</v>
+      <c r="B15" t="s">
+        <v>55</v>
       </c>
       <c r="C15">
         <v>237.51</v>
@@ -1496,7 +1556,7 @@
         <v>-76.12</v>
       </c>
       <c r="N15">
-        <v>12.49266666666667</v>
+        <v>12.49</v>
       </c>
       <c r="O15">
         <v>-76.12</v>
@@ -1527,8 +1587,8 @@
       <c r="A16" t="s">
         <v>36</v>
       </c>
-      <c r="B16">
-        <v>283.93</v>
+      <c r="B16" t="s">
+        <v>56</v>
       </c>
       <c r="C16">
         <v>283.93</v>
@@ -1564,7 +1624,7 @@
         <v>269.12</v>
       </c>
       <c r="N16">
-        <v>12.49266666666667</v>
+        <v>12.49</v>
       </c>
       <c r="O16">
         <v>269.12</v>
@@ -1595,8 +1655,8 @@
       <c r="A17" t="s">
         <v>37</v>
       </c>
-      <c r="B17">
-        <v>338.27</v>
+      <c r="B17" t="s">
+        <v>57</v>
       </c>
       <c r="C17">
         <v>338.27</v>
@@ -1663,8 +1723,8 @@
       <c r="A18" t="s">
         <v>38</v>
       </c>
-      <c r="B18">
-        <v>207.77</v>
+      <c r="B18" t="s">
+        <v>58</v>
       </c>
       <c r="C18">
         <v>207.77</v>
@@ -1731,8 +1791,8 @@
       <c r="A19" t="s">
         <v>39</v>
       </c>
-      <c r="B19">
-        <v>212.04</v>
+      <c r="B19" t="s">
+        <v>59</v>
       </c>
       <c r="C19">
         <v>212.04</v>
@@ -1768,7 +1828,7 @@
         <v>8.42</v>
       </c>
       <c r="N19">
-        <v>12.49266666666667</v>
+        <v>12.49</v>
       </c>
       <c r="O19">
         <v>8.42</v>
@@ -1799,8 +1859,8 @@
       <c r="A20" t="s">
         <v>40</v>
       </c>
-      <c r="B20">
-        <v>276.24</v>
+      <c r="B20" t="s">
+        <v>60</v>
       </c>
       <c r="C20">
         <v>276.24</v>
@@ -1836,7 +1896,7 @@
         <v>52.24</v>
       </c>
       <c r="N20">
-        <v>12.49266666666667</v>
+        <v>12.49</v>
       </c>
       <c r="O20">
         <v>52.24</v>
@@ -1867,8 +1927,8 @@
       <c r="A21" t="s">
         <v>41</v>
       </c>
-      <c r="B21">
-        <v>357.33</v>
+      <c r="B21" t="s">
+        <v>61</v>
       </c>
       <c r="C21">
         <v>357.33</v>
@@ -1904,7 +1964,7 @@
         <v>-818.63</v>
       </c>
       <c r="N21">
-        <v>12.49266666666667</v>
+        <v>12.49</v>
       </c>
       <c r="O21">
         <v>-818.63</v>
